--- a/result/shapeletsectiontime.xlsx
+++ b/result/shapeletsectiontime.xlsx
@@ -8,29 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
-  <si>
-    <t>FSS</t>
-  </si>
-  <si>
-    <t>gRSF</t>
-  </si>
-  <si>
-    <t>FS</t>
-  </si>
-  <si>
-    <t>ST</t>
-  </si>
-  <si>
-    <t>LS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ChlorineConcentration</t>
   </si>
@@ -441,34 +425,35 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>7.9705953000000003</v>
@@ -480,11 +465,13 @@
         <v>246.77</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1">
+        <v>17180.891759800001</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>3.8325448999999998</v>
@@ -504,7 +491,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1">
         <v>175.70135450000001</v>
@@ -518,11 +505,13 @@
       <c r="E4" s="1">
         <v>6265.5553599000004</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>68698.400079600004</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>0.1890916</v>
@@ -542,7 +531,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
         <v>6.3176399999999994E-2</v>
@@ -562,7 +551,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>7.6835000000000002E-3</v>
@@ -582,7 +571,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1">
         <v>49.689419399999998</v>
@@ -602,7 +591,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1">
         <v>2.5341689000000001</v>
@@ -622,7 +611,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1">
         <v>9.7821999999999996E-3</v>
@@ -642,7 +631,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1">
         <v>0.19914190000000001</v>
@@ -662,7 +651,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1">
         <v>113.4403112</v>
@@ -682,7 +671,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
         <v>7.7377000000000001E-3</v>
@@ -698,180 +687,6 @@
       </c>
       <c r="F13" s="1">
         <v>3.1627375999999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>3.0779999999999998</v>
-      </c>
-      <c r="C2">
-        <v>624.4375</v>
-      </c>
-      <c r="D2">
-        <v>175.51900000000001</v>
-      </c>
-      <c r="E2">
-        <v>21921.631000000001</v>
-      </c>
-      <c r="F2">
-        <v>6389.5239929999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="C3">
-        <v>6.4375</v>
-      </c>
-      <c r="D3">
-        <v>6.798</v>
-      </c>
-      <c r="E3">
-        <v>548.46400000000006</v>
-      </c>
-      <c r="F3">
-        <v>241.0683276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="C4">
-        <v>13.34375</v>
-      </c>
-      <c r="D4">
-        <v>8.2949999999999999</v>
-      </c>
-      <c r="E4">
-        <v>332.62799999999999</v>
-      </c>
-      <c r="F4">
-        <v>780.01369439999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>10.430999999999999</v>
-      </c>
-      <c r="C5">
-        <v>123.97</v>
-      </c>
-      <c r="D5">
-        <v>114.9</v>
-      </c>
-      <c r="E5">
-        <v>13646.8</v>
-      </c>
-      <c r="F5">
-        <v>14535.89107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>1.2E-2</v>
-      </c>
-      <c r="C6">
-        <v>1.86</v>
-      </c>
-      <c r="D6">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="E6">
-        <v>2.0649999999999999</v>
-      </c>
-      <c r="F6">
-        <v>23.539295559999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>4.7300000000000004</v>
-      </c>
-      <c r="C7">
-        <v>40.159999999999997</v>
-      </c>
-      <c r="D7">
-        <v>37.457000000000001</v>
-      </c>
-      <c r="E7">
-        <v>4477.3</v>
-      </c>
-      <c r="F7">
-        <v>4781.6975210000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>17.861999999999998</v>
-      </c>
-      <c r="C8">
-        <v>80.13</v>
-      </c>
-      <c r="D8">
-        <v>55.468000000000004</v>
-      </c>
-      <c r="E8">
-        <v>6902.0389999999998</v>
-      </c>
-      <c r="F8">
-        <v>5332.5141700000004</v>
       </c>
     </row>
   </sheetData>

--- a/result/shapeletsectiontime.xlsx
+++ b/result/shapeletsectiontime.xlsx
@@ -425,12 +425,12 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
     <col min="6" max="6" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -464,7 +464,9 @@
       <c r="D2">
         <v>246.77</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1">
+        <v>1068216.3407443999</v>
+      </c>
       <c r="F2" s="1">
         <v>17180.891759800001</v>
       </c>
